--- a/Documents/RACI.xlsx
+++ b/Documents/RACI.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="43">
   <si>
     <t>Project Team Members</t>
   </si>
@@ -130,6 +130,24 @@
   </si>
   <si>
     <t xml:space="preserve"> - Create Skill Matrix</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - High level design </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Usecase and usecase scenario</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - ERD</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - WireFrames </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Class Diagram</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - DFD </t>
   </si>
 </sst>
 </file>
@@ -1014,14 +1032,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
@@ -1086,14 +1104,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
@@ -1417,10 +1435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BD33"/>
+  <dimension ref="A1:BD38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1882,7 +1900,7 @@
       <c r="L16" s="40"/>
       <c r="M16" s="35"/>
     </row>
-    <row r="17" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
         <v>33</v>
       </c>
@@ -1913,7 +1931,7 @@
       <c r="L17" s="40"/>
       <c r="M17" s="35"/>
     </row>
-    <row r="18" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
         <v>34</v>
       </c>
@@ -1944,7 +1962,7 @@
       <c r="L18" s="40"/>
       <c r="M18" s="35"/>
     </row>
-    <row r="19" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
         <v>35</v>
       </c>
@@ -1975,7 +1993,7 @@
       <c r="L19" s="40"/>
       <c r="M19" s="35"/>
     </row>
-    <row r="20" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
         <v>36</v>
       </c>
@@ -2006,7 +2024,7 @@
       <c r="L20" s="40"/>
       <c r="M20" s="35"/>
     </row>
-    <row r="21" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>18</v>
       </c>
@@ -2022,7 +2040,7 @@
       <c r="K21" s="13"/>
       <c r="L21" s="36"/>
     </row>
-    <row r="22" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
         <v>27</v>
       </c>
@@ -2052,7 +2070,7 @@
       <c r="K22" s="13"/>
       <c r="L22" s="14"/>
     </row>
-    <row r="23" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
         <v>29</v>
       </c>
@@ -2082,7 +2100,7 @@
       <c r="K23" s="13"/>
       <c r="L23" s="14"/>
     </row>
-    <row r="24" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
         <v>28</v>
       </c>
@@ -2112,7 +2130,7 @@
       <c r="K24" s="13"/>
       <c r="L24" s="14"/>
     </row>
-    <row r="25" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
         <v>19</v>
       </c>
@@ -2128,148 +2146,314 @@
       <c r="K25" s="13"/>
       <c r="L25" s="14"/>
     </row>
-    <row r="26" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="15"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="12"/>
+    <row r="26" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G26" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H26" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="I26" s="13"/>
       <c r="J26" s="13"/>
       <c r="K26" s="13"/>
       <c r="L26" s="14"/>
     </row>
-    <row r="27" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B27" s="47"/>
-      <c r="C27" s="48"/>
-      <c r="D27" s="48"/>
-      <c r="E27" s="48"/>
-      <c r="F27" s="48"/>
-      <c r="G27" s="48"/>
-      <c r="H27" s="47"/>
+    <row r="27" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G27" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H27" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="I27" s="13"/>
       <c r="J27" s="13"/>
       <c r="K27" s="13"/>
       <c r="L27" s="14"/>
     </row>
-    <row r="28" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="15"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="12"/>
+    <row r="28" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G28" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H28" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="I28" s="13"/>
       <c r="J28" s="13"/>
       <c r="K28" s="13"/>
       <c r="L28" s="14"/>
     </row>
-    <row r="29" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="15"/>
-      <c r="B29" s="38"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="12"/>
+    <row r="29" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G29" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H29" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="I29" s="13"/>
       <c r="J29" s="13"/>
       <c r="K29" s="13"/>
       <c r="L29" s="14"/>
     </row>
-    <row r="30" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B30" s="55"/>
-      <c r="C30" s="48"/>
-      <c r="D30" s="48"/>
-      <c r="E30" s="48"/>
-      <c r="F30" s="48"/>
-      <c r="G30" s="48"/>
-      <c r="H30" s="47"/>
+    <row r="30" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G30" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="H30" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="I30" s="13"/>
       <c r="J30" s="13"/>
       <c r="K30" s="13"/>
-      <c r="L30" s="19"/>
-    </row>
-    <row r="31" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31" s="12"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="12"/>
+      <c r="L30" s="14"/>
+    </row>
+    <row r="31" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F31" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G31" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H31" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="I31" s="13"/>
       <c r="J31" s="13"/>
       <c r="K31" s="13"/>
       <c r="L31" s="14"/>
     </row>
-    <row r="32" spans="1:48" s="20" customFormat="1" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="50"/>
-      <c r="B32" s="52"/>
-      <c r="C32" s="53"/>
-      <c r="D32" s="51"/>
-      <c r="E32" s="51"/>
-      <c r="F32" s="51"/>
-      <c r="G32" s="51"/>
-      <c r="H32" s="54"/>
-      <c r="I32" s="53"/>
-      <c r="J32" s="53"/>
-      <c r="K32" s="53"/>
-      <c r="L32" s="53"/>
-      <c r="M32" s="33"/>
-      <c r="N32" s="31"/>
-      <c r="O32" s="31"/>
-      <c r="P32" s="31"/>
-      <c r="Q32" s="31"/>
-      <c r="R32" s="31"/>
-      <c r="S32" s="31"/>
-      <c r="T32" s="31"/>
-      <c r="U32" s="31"/>
-      <c r="V32" s="31"/>
-      <c r="W32" s="31"/>
-      <c r="X32" s="31"/>
-      <c r="Y32" s="31"/>
-      <c r="Z32" s="31"/>
-      <c r="AA32" s="31"/>
-      <c r="AB32" s="31"/>
-      <c r="AC32" s="31"/>
-      <c r="AD32" s="31"/>
-      <c r="AE32" s="31"/>
-      <c r="AF32" s="31"/>
-      <c r="AG32" s="31"/>
-      <c r="AH32" s="31"/>
-      <c r="AI32" s="31"/>
-      <c r="AJ32" s="31"/>
-      <c r="AK32" s="31"/>
-      <c r="AL32" s="31"/>
-      <c r="AM32" s="31"/>
-      <c r="AN32" s="31"/>
-      <c r="AO32" s="31"/>
-      <c r="AP32" s="31"/>
-      <c r="AQ32" s="31"/>
-      <c r="AR32" s="31"/>
-      <c r="AS32" s="31"/>
-      <c r="AT32" s="31"/>
-      <c r="AU32" s="31"/>
-      <c r="AV32" s="31"/>
-    </row>
-    <row r="33" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L33" s="32"/>
+    <row r="32" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B32" s="47"/>
+      <c r="C32" s="48"/>
+      <c r="D32" s="48"/>
+      <c r="E32" s="48"/>
+      <c r="F32" s="48"/>
+      <c r="G32" s="48"/>
+      <c r="H32" s="47"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="14"/>
+    </row>
+    <row r="33" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="15"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="13"/>
+      <c r="K33" s="13"/>
+      <c r="L33" s="14"/>
+    </row>
+    <row r="34" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="15"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="39"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="13"/>
+      <c r="K34" s="13"/>
+      <c r="L34" s="14"/>
+    </row>
+    <row r="35" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B35" s="55"/>
+      <c r="C35" s="48"/>
+      <c r="D35" s="48"/>
+      <c r="E35" s="48"/>
+      <c r="F35" s="48"/>
+      <c r="G35" s="48"/>
+      <c r="H35" s="47"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="13"/>
+      <c r="K35" s="13"/>
+      <c r="L35" s="19"/>
+    </row>
+    <row r="36" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B36" s="12"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="13"/>
+      <c r="K36" s="13"/>
+      <c r="L36" s="14"/>
+    </row>
+    <row r="37" spans="1:48" s="20" customFormat="1" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="50"/>
+      <c r="B37" s="52"/>
+      <c r="C37" s="53"/>
+      <c r="D37" s="51"/>
+      <c r="E37" s="51"/>
+      <c r="F37" s="51"/>
+      <c r="G37" s="51"/>
+      <c r="H37" s="54"/>
+      <c r="I37" s="53"/>
+      <c r="J37" s="53"/>
+      <c r="K37" s="53"/>
+      <c r="L37" s="53"/>
+      <c r="M37" s="33"/>
+      <c r="N37" s="31"/>
+      <c r="O37" s="31"/>
+      <c r="P37" s="31"/>
+      <c r="Q37" s="31"/>
+      <c r="R37" s="31"/>
+      <c r="S37" s="31"/>
+      <c r="T37" s="31"/>
+      <c r="U37" s="31"/>
+      <c r="V37" s="31"/>
+      <c r="W37" s="31"/>
+      <c r="X37" s="31"/>
+      <c r="Y37" s="31"/>
+      <c r="Z37" s="31"/>
+      <c r="AA37" s="31"/>
+      <c r="AB37" s="31"/>
+      <c r="AC37" s="31"/>
+      <c r="AD37" s="31"/>
+      <c r="AE37" s="31"/>
+      <c r="AF37" s="31"/>
+      <c r="AG37" s="31"/>
+      <c r="AH37" s="31"/>
+      <c r="AI37" s="31"/>
+      <c r="AJ37" s="31"/>
+      <c r="AK37" s="31"/>
+      <c r="AL37" s="31"/>
+      <c r="AM37" s="31"/>
+      <c r="AN37" s="31"/>
+      <c r="AO37" s="31"/>
+      <c r="AP37" s="31"/>
+      <c r="AQ37" s="31"/>
+      <c r="AR37" s="31"/>
+      <c r="AS37" s="31"/>
+      <c r="AT37" s="31"/>
+      <c r="AU37" s="31"/>
+      <c r="AV37" s="31"/>
+    </row>
+    <row r="38" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="L38" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Documents/RACI.xlsx
+++ b/Documents/RACI.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="55">
   <si>
     <t>Project Team Members</t>
   </si>
@@ -148,6 +148,42 @@
   </si>
   <si>
     <t xml:space="preserve"> - DFD </t>
+  </si>
+  <si>
+    <t>Frontend Foodies Add Menu page</t>
+  </si>
+  <si>
+    <t>Frontend Foodies Admin profile page</t>
+  </si>
+  <si>
+    <t>Frontend Foodies delete user page</t>
+  </si>
+  <si>
+    <t>Frontend Foodies Home page</t>
+  </si>
+  <si>
+    <t>Frontend Foodies Login page</t>
+  </si>
+  <si>
+    <t>Frontend Foodies Offers page</t>
+  </si>
+  <si>
+    <t>Frontend Foodies View Menu page</t>
+  </si>
+  <si>
+    <t>Frontend Foodies Registration page</t>
+  </si>
+  <si>
+    <t>Backend Foodies All Pages</t>
+  </si>
+  <si>
+    <t>Frontend Foodies user profile page</t>
+  </si>
+  <si>
+    <t>Update RACI table</t>
+  </si>
+  <si>
+    <t>Update Project Schedule</t>
   </si>
 </sst>
 </file>
@@ -270,7 +306,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="42">
+  <borders count="43">
     <border>
       <left/>
       <right/>
@@ -771,11 +807,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -934,6 +981,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1032,14 +1082,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
               <a:solidFill>
                 <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
@@ -1104,14 +1154,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
               <a:solidFill>
                 <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
@@ -1435,10 +1485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BD38"/>
+  <dimension ref="A1:BD48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2343,117 +2393,443 @@
       <c r="L32" s="14"/>
     </row>
     <row r="33" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="15"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="12"/>
+      <c r="A33" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F33" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G33" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H33" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="I33" s="13"/>
       <c r="J33" s="13"/>
       <c r="K33" s="13"/>
       <c r="L33" s="14"/>
     </row>
     <row r="34" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="15"/>
-      <c r="B34" s="38"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="39"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="39"/>
-      <c r="G34" s="14"/>
-      <c r="H34" s="12"/>
+      <c r="A34" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B34" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F34" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G34" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="H34" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="I34" s="13"/>
       <c r="J34" s="13"/>
       <c r="K34" s="13"/>
       <c r="L34" s="14"/>
     </row>
     <row r="35" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B35" s="55"/>
-      <c r="C35" s="48"/>
-      <c r="D35" s="48"/>
-      <c r="E35" s="48"/>
-      <c r="F35" s="48"/>
-      <c r="G35" s="48"/>
-      <c r="H35" s="47"/>
+      <c r="A35" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B35" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F35" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G35" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="H35" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="I35" s="13"/>
       <c r="J35" s="13"/>
       <c r="K35" s="13"/>
-      <c r="L35" s="19"/>
+      <c r="L35" s="14"/>
     </row>
     <row r="36" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B36" s="12"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="12"/>
+      <c r="A36" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B36" s="66" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F36" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G36" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="H36" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="I36" s="13"/>
       <c r="J36" s="13"/>
       <c r="K36" s="13"/>
-      <c r="L36" s="14"/>
-    </row>
-    <row r="37" spans="1:48" s="20" customFormat="1" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="50"/>
-      <c r="B37" s="52"/>
-      <c r="C37" s="53"/>
-      <c r="D37" s="51"/>
-      <c r="E37" s="51"/>
-      <c r="F37" s="51"/>
-      <c r="G37" s="51"/>
-      <c r="H37" s="54"/>
-      <c r="I37" s="53"/>
-      <c r="J37" s="53"/>
-      <c r="K37" s="53"/>
-      <c r="L37" s="53"/>
-      <c r="M37" s="33"/>
-      <c r="N37" s="31"/>
-      <c r="O37" s="31"/>
-      <c r="P37" s="31"/>
-      <c r="Q37" s="31"/>
-      <c r="R37" s="31"/>
-      <c r="S37" s="31"/>
-      <c r="T37" s="31"/>
-      <c r="U37" s="31"/>
-      <c r="V37" s="31"/>
-      <c r="W37" s="31"/>
-      <c r="X37" s="31"/>
-      <c r="Y37" s="31"/>
-      <c r="Z37" s="31"/>
-      <c r="AA37" s="31"/>
-      <c r="AB37" s="31"/>
-      <c r="AC37" s="31"/>
-      <c r="AD37" s="31"/>
-      <c r="AE37" s="31"/>
-      <c r="AF37" s="31"/>
-      <c r="AG37" s="31"/>
-      <c r="AH37" s="31"/>
-      <c r="AI37" s="31"/>
-      <c r="AJ37" s="31"/>
-      <c r="AK37" s="31"/>
-      <c r="AL37" s="31"/>
-      <c r="AM37" s="31"/>
-      <c r="AN37" s="31"/>
-      <c r="AO37" s="31"/>
-      <c r="AP37" s="31"/>
-      <c r="AQ37" s="31"/>
-      <c r="AR37" s="31"/>
-      <c r="AS37" s="31"/>
-      <c r="AT37" s="31"/>
-      <c r="AU37" s="31"/>
-      <c r="AV37" s="31"/>
-    </row>
-    <row r="38" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="L38" s="32"/>
+      <c r="L36" s="19"/>
+    </row>
+    <row r="37" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B37" s="66" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E37" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F37" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G37" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="H37" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I37" s="13"/>
+      <c r="J37" s="13"/>
+      <c r="K37" s="13"/>
+      <c r="L37" s="19"/>
+    </row>
+    <row r="38" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B38" s="66" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E38" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F38" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G38" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="H38" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I38" s="13"/>
+      <c r="J38" s="13"/>
+      <c r="K38" s="13"/>
+      <c r="L38" s="19"/>
+    </row>
+    <row r="39" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B39" s="66" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E39" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F39" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G39" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="H39" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I39" s="13"/>
+      <c r="J39" s="13"/>
+      <c r="K39" s="13"/>
+      <c r="L39" s="19"/>
+    </row>
+    <row r="40" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B40" s="66" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E40" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F40" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G40" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H40" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I40" s="13"/>
+      <c r="J40" s="13"/>
+      <c r="K40" s="13"/>
+      <c r="L40" s="19"/>
+    </row>
+    <row r="41" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B41" s="66" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" s="66" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41" s="66" t="s">
+        <v>7</v>
+      </c>
+      <c r="E41" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F41" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G41" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H41" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I41" s="13"/>
+      <c r="J41" s="13"/>
+      <c r="K41" s="13"/>
+      <c r="L41" s="19"/>
+    </row>
+    <row r="42" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B42" s="66" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F42" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G42" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="H42" s="12"/>
+      <c r="I42" s="13"/>
+      <c r="J42" s="13"/>
+      <c r="K42" s="13"/>
+      <c r="L42" s="19"/>
+    </row>
+    <row r="43" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B43" s="66" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E43" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F43" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G43" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H43" s="12"/>
+      <c r="I43" s="13"/>
+      <c r="J43" s="13"/>
+      <c r="K43" s="13"/>
+      <c r="L43" s="19"/>
+    </row>
+    <row r="44" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B44" s="66" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D44" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E44" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F44" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G44" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H44" s="12"/>
+      <c r="I44" s="13"/>
+      <c r="J44" s="13"/>
+      <c r="K44" s="13"/>
+      <c r="L44" s="19"/>
+    </row>
+    <row r="45" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B45" s="55"/>
+      <c r="C45" s="48"/>
+      <c r="D45" s="48"/>
+      <c r="E45" s="48"/>
+      <c r="F45" s="48"/>
+      <c r="G45" s="48"/>
+      <c r="H45" s="47"/>
+      <c r="I45" s="13"/>
+      <c r="J45" s="13"/>
+      <c r="K45" s="13"/>
+      <c r="L45" s="19"/>
+    </row>
+    <row r="46" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B46" s="12"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="14"/>
+      <c r="H46" s="12"/>
+      <c r="I46" s="13"/>
+      <c r="J46" s="13"/>
+      <c r="K46" s="13"/>
+      <c r="L46" s="14"/>
+    </row>
+    <row r="47" spans="1:48" s="20" customFormat="1" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="50"/>
+      <c r="B47" s="52"/>
+      <c r="C47" s="53"/>
+      <c r="D47" s="51"/>
+      <c r="E47" s="51"/>
+      <c r="F47" s="51"/>
+      <c r="G47" s="51"/>
+      <c r="H47" s="54"/>
+      <c r="I47" s="53"/>
+      <c r="J47" s="53"/>
+      <c r="K47" s="53"/>
+      <c r="L47" s="53"/>
+      <c r="M47" s="33"/>
+      <c r="N47" s="31"/>
+      <c r="O47" s="31"/>
+      <c r="P47" s="31"/>
+      <c r="Q47" s="31"/>
+      <c r="R47" s="31"/>
+      <c r="S47" s="31"/>
+      <c r="T47" s="31"/>
+      <c r="U47" s="31"/>
+      <c r="V47" s="31"/>
+      <c r="W47" s="31"/>
+      <c r="X47" s="31"/>
+      <c r="Y47" s="31"/>
+      <c r="Z47" s="31"/>
+      <c r="AA47" s="31"/>
+      <c r="AB47" s="31"/>
+      <c r="AC47" s="31"/>
+      <c r="AD47" s="31"/>
+      <c r="AE47" s="31"/>
+      <c r="AF47" s="31"/>
+      <c r="AG47" s="31"/>
+      <c r="AH47" s="31"/>
+      <c r="AI47" s="31"/>
+      <c r="AJ47" s="31"/>
+      <c r="AK47" s="31"/>
+      <c r="AL47" s="31"/>
+      <c r="AM47" s="31"/>
+      <c r="AN47" s="31"/>
+      <c r="AO47" s="31"/>
+      <c r="AP47" s="31"/>
+      <c r="AQ47" s="31"/>
+      <c r="AR47" s="31"/>
+      <c r="AS47" s="31"/>
+      <c r="AT47" s="31"/>
+      <c r="AU47" s="31"/>
+      <c r="AV47" s="31"/>
+    </row>
+    <row r="48" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="L48" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Documents/RACI.xlsx
+++ b/Documents/RACI.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="61">
   <si>
     <t>Project Team Members</t>
   </si>
@@ -184,6 +184,24 @@
   </si>
   <si>
     <t>Update Project Schedule</t>
+  </si>
+  <si>
+    <t xml:space="preserve">write and execute TC from 1-12 in SRS Requirements </t>
+  </si>
+  <si>
+    <t xml:space="preserve">write and execute TC from 13-25 in SRS Requirements </t>
+  </si>
+  <si>
+    <t xml:space="preserve">write and execute TC from 26- 37in SRS Requirements </t>
+  </si>
+  <si>
+    <t xml:space="preserve">write and execute TC from 38-50 in SRS Requirements </t>
+  </si>
+  <si>
+    <t xml:space="preserve">write and execute TC from 51-59 in SRS Requirements </t>
+  </si>
+  <si>
+    <t xml:space="preserve">fix the bugs </t>
   </si>
 </sst>
 </file>
@@ -953,6 +971,9 @@
     <xf numFmtId="1" fontId="6" fillId="5" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -981,9 +1002,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1082,14 +1100,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
@@ -1154,14 +1172,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
@@ -1485,10 +1503,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BD48"/>
+  <dimension ref="A1:BD54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="J41" sqref="J41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:U2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1502,73 +1520,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:56" s="1" customFormat="1" ht="13.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
-      <c r="N1" s="57"/>
-      <c r="O1" s="57"/>
-      <c r="P1" s="57"/>
-      <c r="Q1" s="57"/>
-      <c r="R1" s="57"/>
-      <c r="S1" s="57"/>
-      <c r="T1" s="57"/>
-      <c r="U1" s="58"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
+      <c r="P1" s="58"/>
+      <c r="Q1" s="58"/>
+      <c r="R1" s="58"/>
+      <c r="S1" s="58"/>
+      <c r="T1" s="58"/>
+      <c r="U1" s="59"/>
     </row>
     <row r="2" spans="1:56" s="1" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="59"/>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="60"/>
-      <c r="N2" s="60"/>
-      <c r="O2" s="60"/>
-      <c r="P2" s="60"/>
-      <c r="Q2" s="60"/>
-      <c r="R2" s="60"/>
-      <c r="S2" s="60"/>
-      <c r="T2" s="60"/>
-      <c r="U2" s="61"/>
+      <c r="A2" s="60"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="61"/>
+      <c r="N2" s="61"/>
+      <c r="O2" s="61"/>
+      <c r="P2" s="61"/>
+      <c r="Q2" s="61"/>
+      <c r="R2" s="61"/>
+      <c r="S2" s="61"/>
+      <c r="T2" s="61"/>
+      <c r="U2" s="62"/>
     </row>
     <row r="3" spans="1:56" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D3" s="28"/>
     </row>
     <row r="4" spans="1:56" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="49"/>
-      <c r="B4" s="62" t="s">
+      <c r="B4" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="65" t="s">
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="63"/>
-      <c r="J4" s="63"/>
-      <c r="K4" s="63"/>
-      <c r="L4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="64"/>
+      <c r="L4" s="65"/>
     </row>
     <row r="5" spans="1:56" s="10" customFormat="1" ht="95.25" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
@@ -2392,7 +2410,7 @@
       <c r="K32" s="13"/>
       <c r="L32" s="14"/>
     </row>
-    <row r="33" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="15" t="s">
         <v>43</v>
       </c>
@@ -2422,7 +2440,7 @@
       <c r="K33" s="13"/>
       <c r="L33" s="14"/>
     </row>
-    <row r="34" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="15" t="s">
         <v>52</v>
       </c>
@@ -2452,7 +2470,7 @@
       <c r="K34" s="13"/>
       <c r="L34" s="14"/>
     </row>
-    <row r="35" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="15" t="s">
         <v>44</v>
       </c>
@@ -2482,11 +2500,11 @@
       <c r="K35" s="13"/>
       <c r="L35" s="14"/>
     </row>
-    <row r="36" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="B36" s="66" t="s">
+      <c r="B36" s="56" t="s">
         <v>4</v>
       </c>
       <c r="C36" s="13" t="s">
@@ -2512,11 +2530,11 @@
       <c r="K36" s="13"/>
       <c r="L36" s="19"/>
     </row>
-    <row r="37" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B37" s="66" t="s">
+      <c r="B37" s="56" t="s">
         <v>7</v>
       </c>
       <c r="C37" s="13" t="s">
@@ -2542,11 +2560,11 @@
       <c r="K37" s="13"/>
       <c r="L37" s="19"/>
     </row>
-    <row r="38" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="B38" s="66" t="s">
+      <c r="B38" s="56" t="s">
         <v>7</v>
       </c>
       <c r="C38" s="13" t="s">
@@ -2572,11 +2590,11 @@
       <c r="K38" s="13"/>
       <c r="L38" s="19"/>
     </row>
-    <row r="39" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="B39" s="66" t="s">
+      <c r="B39" s="56" t="s">
         <v>7</v>
       </c>
       <c r="C39" s="13" t="s">
@@ -2602,11 +2620,11 @@
       <c r="K39" s="13"/>
       <c r="L39" s="19"/>
     </row>
-    <row r="40" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="B40" s="66" t="s">
+      <c r="B40" s="56" t="s">
         <v>4</v>
       </c>
       <c r="C40" s="13" t="s">
@@ -2632,17 +2650,17 @@
       <c r="K40" s="13"/>
       <c r="L40" s="19"/>
     </row>
-    <row r="41" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="B41" s="66" t="s">
-        <v>7</v>
-      </c>
-      <c r="C41" s="66" t="s">
-        <v>7</v>
-      </c>
-      <c r="D41" s="66" t="s">
+      <c r="B41" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41" s="56" t="s">
         <v>7</v>
       </c>
       <c r="E41" s="13" t="s">
@@ -2662,11 +2680,11 @@
       <c r="K41" s="13"/>
       <c r="L41" s="19"/>
     </row>
-    <row r="42" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="B42" s="66" t="s">
+      <c r="B42" s="56" t="s">
         <v>7</v>
       </c>
       <c r="C42" s="13" t="s">
@@ -2690,11 +2708,11 @@
       <c r="K42" s="13"/>
       <c r="L42" s="19"/>
     </row>
-    <row r="43" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="B43" s="66" t="s">
+      <c r="B43" s="56" t="s">
         <v>5</v>
       </c>
       <c r="C43" s="13" t="s">
@@ -2718,11 +2736,11 @@
       <c r="K43" s="13"/>
       <c r="L43" s="19"/>
     </row>
-    <row r="44" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="B44" s="66" t="s">
+      <c r="B44" s="56" t="s">
         <v>5</v>
       </c>
       <c r="C44" s="13" t="s">
@@ -2746,7 +2764,7 @@
       <c r="K44" s="13"/>
       <c r="L44" s="19"/>
     </row>
-    <row r="45" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
         <v>21</v>
       </c>
@@ -2762,74 +2780,242 @@
       <c r="K45" s="13"/>
       <c r="L45" s="19"/>
     </row>
-    <row r="46" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B46" s="12"/>
-      <c r="C46" s="13"/>
-      <c r="D46" s="13"/>
-      <c r="E46" s="13"/>
-      <c r="F46" s="17"/>
-      <c r="G46" s="14"/>
-      <c r="H46" s="12"/>
+    <row r="46" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B46" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="D46" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="E46" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="F46" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="G46" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="H46" s="47"/>
       <c r="I46" s="13"/>
       <c r="J46" s="13"/>
       <c r="K46" s="13"/>
-      <c r="L46" s="14"/>
-    </row>
-    <row r="47" spans="1:48" s="20" customFormat="1" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="50"/>
-      <c r="B47" s="52"/>
-      <c r="C47" s="53"/>
-      <c r="D47" s="51"/>
-      <c r="E47" s="51"/>
-      <c r="F47" s="51"/>
-      <c r="G47" s="51"/>
-      <c r="H47" s="54"/>
-      <c r="I47" s="53"/>
-      <c r="J47" s="53"/>
-      <c r="K47" s="53"/>
-      <c r="L47" s="53"/>
-      <c r="M47" s="33"/>
-      <c r="N47" s="31"/>
-      <c r="O47" s="31"/>
-      <c r="P47" s="31"/>
-      <c r="Q47" s="31"/>
-      <c r="R47" s="31"/>
-      <c r="S47" s="31"/>
-      <c r="T47" s="31"/>
-      <c r="U47" s="31"/>
-      <c r="V47" s="31"/>
-      <c r="W47" s="31"/>
-      <c r="X47" s="31"/>
-      <c r="Y47" s="31"/>
-      <c r="Z47" s="31"/>
-      <c r="AA47" s="31"/>
-      <c r="AB47" s="31"/>
-      <c r="AC47" s="31"/>
-      <c r="AD47" s="31"/>
-      <c r="AE47" s="31"/>
-      <c r="AF47" s="31"/>
-      <c r="AG47" s="31"/>
-      <c r="AH47" s="31"/>
-      <c r="AI47" s="31"/>
-      <c r="AJ47" s="31"/>
-      <c r="AK47" s="31"/>
-      <c r="AL47" s="31"/>
-      <c r="AM47" s="31"/>
-      <c r="AN47" s="31"/>
-      <c r="AO47" s="31"/>
-      <c r="AP47" s="31"/>
-      <c r="AQ47" s="31"/>
-      <c r="AR47" s="31"/>
-      <c r="AS47" s="31"/>
-      <c r="AT47" s="31"/>
-      <c r="AU47" s="31"/>
-      <c r="AV47" s="31"/>
-    </row>
-    <row r="48" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="L48" s="32"/>
+      <c r="L46" s="19"/>
+    </row>
+    <row r="47" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="B47" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="E47" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="F47" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="G47" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="H47" s="47"/>
+      <c r="I47" s="13"/>
+      <c r="J47" s="13"/>
+      <c r="K47" s="13"/>
+      <c r="L47" s="19"/>
+    </row>
+    <row r="48" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="B48" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="D48" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="E48" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="F48" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="G48" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="H48" s="47"/>
+      <c r="I48" s="13"/>
+      <c r="J48" s="13"/>
+      <c r="K48" s="13"/>
+      <c r="L48" s="19"/>
+    </row>
+    <row r="49" spans="1:48" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B49" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="D49" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="E49" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="F49" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="G49" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="H49" s="47"/>
+      <c r="I49" s="13"/>
+      <c r="J49" s="13"/>
+      <c r="K49" s="13"/>
+      <c r="L49" s="19"/>
+    </row>
+    <row r="50" spans="1:48" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="B50" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="D50" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="E50" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="F50" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="G50" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="H50" s="47"/>
+      <c r="I50" s="13"/>
+      <c r="J50" s="13"/>
+      <c r="K50" s="13"/>
+      <c r="L50" s="19"/>
+    </row>
+    <row r="51" spans="1:48" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B51" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="D51" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="E51" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="F51" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="G51" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="H51" s="47"/>
+      <c r="I51" s="13"/>
+      <c r="J51" s="13"/>
+      <c r="K51" s="13"/>
+      <c r="L51" s="19"/>
+    </row>
+    <row r="52" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B52" s="12"/>
+      <c r="C52" s="13"/>
+      <c r="D52" s="13"/>
+      <c r="E52" s="13"/>
+      <c r="F52" s="17"/>
+      <c r="G52" s="14"/>
+      <c r="H52" s="12"/>
+      <c r="I52" s="13"/>
+      <c r="J52" s="13"/>
+      <c r="K52" s="13"/>
+      <c r="L52" s="14"/>
+    </row>
+    <row r="53" spans="1:48" s="20" customFormat="1" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="50"/>
+      <c r="B53" s="52"/>
+      <c r="C53" s="53"/>
+      <c r="D53" s="51"/>
+      <c r="E53" s="51"/>
+      <c r="F53" s="51"/>
+      <c r="G53" s="51"/>
+      <c r="H53" s="54"/>
+      <c r="I53" s="53"/>
+      <c r="J53" s="53"/>
+      <c r="K53" s="53"/>
+      <c r="L53" s="53"/>
+      <c r="M53" s="33"/>
+      <c r="N53" s="31"/>
+      <c r="O53" s="31"/>
+      <c r="P53" s="31"/>
+      <c r="Q53" s="31"/>
+      <c r="R53" s="31"/>
+      <c r="S53" s="31"/>
+      <c r="T53" s="31"/>
+      <c r="U53" s="31"/>
+      <c r="V53" s="31"/>
+      <c r="W53" s="31"/>
+      <c r="X53" s="31"/>
+      <c r="Y53" s="31"/>
+      <c r="Z53" s="31"/>
+      <c r="AA53" s="31"/>
+      <c r="AB53" s="31"/>
+      <c r="AC53" s="31"/>
+      <c r="AD53" s="31"/>
+      <c r="AE53" s="31"/>
+      <c r="AF53" s="31"/>
+      <c r="AG53" s="31"/>
+      <c r="AH53" s="31"/>
+      <c r="AI53" s="31"/>
+      <c r="AJ53" s="31"/>
+      <c r="AK53" s="31"/>
+      <c r="AL53" s="31"/>
+      <c r="AM53" s="31"/>
+      <c r="AN53" s="31"/>
+      <c r="AO53" s="31"/>
+      <c r="AP53" s="31"/>
+      <c r="AQ53" s="31"/>
+      <c r="AR53" s="31"/>
+      <c r="AS53" s="31"/>
+      <c r="AT53" s="31"/>
+      <c r="AU53" s="31"/>
+      <c r="AV53" s="31"/>
+    </row>
+    <row r="54" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="L54" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="3">
